--- a/public/동창회 데이터 양식.xlsx
+++ b/public/동창회 데이터 양식.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dlrms\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3F52D25-A61D-4B19-8C9E-A5C2C7FAFB13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{027B7DC9-A517-456D-BAE9-0ED105482BA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,8 +32,128 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>kun lee</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{ADA44E6C-2F9D-4697-BFF6-44A97F3A03A3}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>1 ~ 9</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>기는</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>앞에</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 0 </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>붙여서</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>기입
+예시</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>)_ 01</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>기</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="26">
   <si>
     <t>양력</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -280,12 +400,49 @@
     <t>x</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="나눔바른고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>기</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>02기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15">
+  <fonts count="18">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -390,6 +547,28 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="굴림"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -469,7 +648,7 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -517,6 +696,9 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -535,6 +717,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -734,7 +920,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -742,7 +928,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
+      <selection pane="bottomLeft" activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -821,8 +1007,8 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="49.5" customHeight="1" thickBot="1">
-      <c r="A2" s="3">
-        <v>1</v>
+      <c r="A2" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="B2" s="16" t="s">
         <v>22</v>
@@ -864,8 +1050,8 @@
       </c>
     </row>
     <row r="3" spans="1:17" ht="49.5" customHeight="1">
-      <c r="A3" s="3">
-        <v>1</v>
+      <c r="A3" s="17" t="s">
+        <v>25</v>
       </c>
       <c r="B3" s="16" t="s">
         <v>22</v>
@@ -3597,5 +3783,6 @@
   </hyperlinks>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId3"/>
+  <legacyDrawing r:id="rId4"/>
 </worksheet>
 </file>